--- a/biology/Zoologie/Aire_marine_protégée_de_Capo_Rizzuto/Aire_marine_protégée_de_Capo_Rizzuto.xlsx
+++ b/biology/Zoologie/Aire_marine_protégée_de_Capo_Rizzuto/Aire_marine_protégée_de_Capo_Rizzuto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aire_marine_prot%C3%A9g%C3%A9e_de_Capo_Rizzuto</t>
+          <t>Aire_marine_protégée_de_Capo_Rizzuto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' Aire marine protégée de Capo Rizzuto (en italien : Area Marina Protetta Capo Rizzuto) est une aire marine protégée italienne, située en Calabre, dans la province de Crotone. Créée en 1991, elle couvre une superficie d'approximativement 15 000 hectares et a été placée sous le régime de la convention de Barcelone.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aire_marine_prot%C3%A9g%C3%A9e_de_Capo_Rizzuto</t>
+          <t>Aire_marine_protégée_de_Capo_Rizzuto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Territoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La zone s'étend sur environ 100 mètres de la côte et se divise en deux zones principales :
 Zone A de réserve intégrale, elle-même divisée en deux autres parties :
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aire_marine_prot%C3%A9g%C3%A9e_de_Capo_Rizzuto</t>
+          <t>Aire_marine_protégée_de_Capo_Rizzuto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Flore et faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'importance de cette réserve marine se retrouve à la fois dans la richesse de la faune et de la flore marines, et dans les plages blanches aux eaux cristallines.
 Les fonds marins de cette zone sont très peu profonds, contrairement à tous les autres fonds marins de la côte calabraise, à l'exception de certaines zones rocheuses ; il suffit de penser que l'isobathe de 10 mètres se trouve après environ 1 kilomètre. Les fonds marins sont cependant très riches, avec des herbiers de posidonies. Selon les fonds marins sableux ou rocheux, les habitants sont différents. Parmi la faune, se distinguent les porifères, les cnidaires et les mollusques ; parmi les poissons présents figurent des mérous , des mulets , des girelles et des poissons perroquets colorés (d'origine subtropicale ).
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aire_marine_prot%C3%A9g%C3%A9e_de_Capo_Rizzuto</t>
+          <t>Aire_marine_protégée_de_Capo_Rizzuto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Liens connexes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des aires marines protégées en Italie
 Tour de Nao</t>
